--- a/方法统计.xlsx
+++ b/方法统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E402A6-09FD-4C3E-B065-2542F34AD8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700776C-86F5-4A21-8C86-F9FDD7BC04D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,26 @@
   </si>
   <si>
     <t>计时器，用于评估计算模型训练时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2Smodel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出语句长度，分桶列表，神经元数量，dropout，叠加LSTM层数，最大梯度截断，batchsize，学习率，负采样，训练/测试，数据类型float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建S2S+Attention模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删去非英文字符.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删去所有非中文字符.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,16 +133,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,184 +427,198 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="142" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
